--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Epha4</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H2">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I2">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J2">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.14773152424498</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N2">
-        <v>7.14773152424498</v>
+        <v>21.568245</v>
       </c>
       <c r="O2">
-        <v>0.3432077944869921</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P2">
-        <v>0.3432077944869921</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q2">
-        <v>8.18409617057187</v>
+        <v>0.6724571390816666</v>
       </c>
       <c r="R2">
-        <v>8.18409617057187</v>
+        <v>6.052114251735</v>
       </c>
       <c r="S2">
-        <v>0.2515082326027935</v>
+        <v>0.01568420845208829</v>
       </c>
       <c r="T2">
-        <v>0.2515082326027935</v>
+        <v>0.01568420845208829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H3">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I3">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J3">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.8321182519589</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N3">
-        <v>12.8321182519589</v>
+        <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.6161511507409755</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P3">
-        <v>0.6161511507409755</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q3">
-        <v>14.69267410086104</v>
+        <v>1.207127199290111</v>
       </c>
       <c r="R3">
-        <v>14.69267410086104</v>
+        <v>10.864144793611</v>
       </c>
       <c r="S3">
-        <v>0.4515255464132927</v>
+        <v>0.02815470833978659</v>
       </c>
       <c r="T3">
-        <v>0.4515255464132927</v>
+        <v>0.02815470833978659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.14499210593061</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H4">
-        <v>1.14499210593061</v>
+        <v>0.280603</v>
       </c>
       <c r="I4">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J4">
-        <v>0.7328162024371679</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.846400789955351</v>
+        <v>0.02123933333333333</v>
       </c>
       <c r="N4">
-        <v>0.846400789955351</v>
+        <v>0.063718</v>
       </c>
       <c r="O4">
-        <v>0.04064105477203254</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="P4">
-        <v>0.04064105477203254</v>
+        <v>0.0009830077336842938</v>
       </c>
       <c r="Q4">
-        <v>0.9691222229523092</v>
+        <v>0.001986606883777778</v>
       </c>
       <c r="R4">
-        <v>0.9691222229523092</v>
+        <v>0.017879461954</v>
       </c>
       <c r="S4">
-        <v>0.02978242342108183</v>
+        <v>4.63350816976607E-05</v>
       </c>
       <c r="T4">
-        <v>0.02978242342108183</v>
+        <v>4.63350816976607E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.41746257523316</v>
+        <v>0.09353433333333333</v>
       </c>
       <c r="H5">
-        <v>0.41746257523316</v>
+        <v>0.280603</v>
       </c>
       <c r="I5">
-        <v>0.267183797562832</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="J5">
-        <v>0.267183797562832</v>
+        <v>0.0471360296668244</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.14773152424498</v>
+        <v>1.490109666666666</v>
       </c>
       <c r="N5">
-        <v>7.14773152424498</v>
+        <v>4.470329</v>
       </c>
       <c r="O5">
-        <v>0.3432077944869921</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="P5">
-        <v>0.3432077944869921</v>
+        <v>0.0689658805849709</v>
       </c>
       <c r="Q5">
-        <v>2.983910409186549</v>
+        <v>0.1393764142652222</v>
       </c>
       <c r="R5">
-        <v>2.983910409186549</v>
+        <v>1.254387728387</v>
       </c>
       <c r="S5">
-        <v>0.09169956188419855</v>
+        <v>0.003250777793251857</v>
       </c>
       <c r="T5">
-        <v>0.09169956188419855</v>
+        <v>0.003250777793251857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.41746257523316</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H6">
-        <v>0.41746257523316</v>
+        <v>4.103153</v>
       </c>
       <c r="I6">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="J6">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.8321182519589</v>
+        <v>7.189414999999999</v>
       </c>
       <c r="N6">
-        <v>12.8321182519589</v>
+        <v>21.568245</v>
       </c>
       <c r="O6">
-        <v>0.6161511507409755</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="P6">
-        <v>0.6161511507409755</v>
+        <v>0.3327435204651371</v>
       </c>
       <c r="Q6">
-        <v>5.356929131159197</v>
+        <v>9.833089908498332</v>
       </c>
       <c r="R6">
-        <v>5.356929131159197</v>
+        <v>88.49780917648499</v>
       </c>
       <c r="S6">
-        <v>0.1646256043276828</v>
+        <v>0.2293443297570284</v>
       </c>
       <c r="T6">
-        <v>0.1646256043276828</v>
+        <v>0.2293443297570284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.41746257523316</v>
+        <v>1.367717666666667</v>
       </c>
       <c r="H7">
-        <v>0.41746257523316</v>
+        <v>4.103153</v>
       </c>
       <c r="I7">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="J7">
-        <v>0.267183797562832</v>
+        <v>0.6892525793933763</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.846400789955351</v>
+        <v>12.90571233333333</v>
       </c>
       <c r="N7">
-        <v>0.846400789955351</v>
+        <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.04064105477203254</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="P7">
-        <v>0.04064105477203254</v>
+        <v>0.5973075912162077</v>
       </c>
       <c r="Q7">
-        <v>0.3533406534541417</v>
+        <v>17.65137075921789</v>
       </c>
       <c r="R7">
-        <v>0.3533406534541417</v>
+        <v>158.862336832961</v>
       </c>
       <c r="S7">
-        <v>0.01085863135095071</v>
+        <v>0.4116957979370155</v>
       </c>
       <c r="T7">
-        <v>0.01085863135095071</v>
+        <v>0.4116957979370155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.367717666666667</v>
+      </c>
+      <c r="H8">
+        <v>4.103153</v>
+      </c>
+      <c r="I8">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="J8">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02123933333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.063718</v>
+      </c>
+      <c r="O8">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="P8">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="Q8">
+        <v>0.02904941142822222</v>
+      </c>
+      <c r="R8">
+        <v>0.261444702854</v>
+      </c>
+      <c r="S8">
+        <v>0.0006775406160055365</v>
+      </c>
+      <c r="T8">
+        <v>0.0006775406160055365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.367717666666667</v>
+      </c>
+      <c r="H9">
+        <v>4.103153</v>
+      </c>
+      <c r="I9">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="J9">
+        <v>0.6892525793933763</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.490109666666666</v>
+      </c>
+      <c r="N9">
+        <v>4.470329</v>
+      </c>
+      <c r="O9">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="P9">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="Q9">
+        <v>2.038049316370778</v>
+      </c>
+      <c r="R9">
+        <v>18.342443847337</v>
+      </c>
+      <c r="S9">
+        <v>0.04753491108332676</v>
+      </c>
+      <c r="T9">
+        <v>0.04753491108332676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.523097</v>
+      </c>
+      <c r="H10">
+        <v>1.569291</v>
+      </c>
+      <c r="I10">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J10">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.189414999999999</v>
+      </c>
+      <c r="N10">
+        <v>21.568245</v>
+      </c>
+      <c r="O10">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="P10">
+        <v>0.3327435204651371</v>
+      </c>
+      <c r="Q10">
+        <v>3.760761418255</v>
+      </c>
+      <c r="R10">
+        <v>33.84685276429499</v>
+      </c>
+      <c r="S10">
+        <v>0.08771498225602038</v>
+      </c>
+      <c r="T10">
+        <v>0.08771498225602038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.523097</v>
+      </c>
+      <c r="H11">
+        <v>1.569291</v>
+      </c>
+      <c r="I11">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J11">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.90571233333333</v>
+      </c>
+      <c r="N11">
+        <v>38.717137</v>
+      </c>
+      <c r="O11">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="P11">
+        <v>0.5973075912162077</v>
+      </c>
+      <c r="Q11">
+        <v>6.750939404429667</v>
+      </c>
+      <c r="R11">
+        <v>60.758454639867</v>
+      </c>
+      <c r="S11">
+        <v>0.1574570849394056</v>
+      </c>
+      <c r="T11">
+        <v>0.1574570849394056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.523097</v>
+      </c>
+      <c r="H12">
+        <v>1.569291</v>
+      </c>
+      <c r="I12">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J12">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02123933333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.063718</v>
+      </c>
+      <c r="O12">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="P12">
+        <v>0.0009830077336842938</v>
+      </c>
+      <c r="Q12">
+        <v>0.01111023154866667</v>
+      </c>
+      <c r="R12">
+        <v>0.09999208393799999</v>
+      </c>
+      <c r="S12">
+        <v>0.0002591320359810966</v>
+      </c>
+      <c r="T12">
+        <v>0.0002591320359810966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.523097</v>
+      </c>
+      <c r="H13">
+        <v>1.569291</v>
+      </c>
+      <c r="I13">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="J13">
+        <v>0.2636113909397994</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.490109666666666</v>
+      </c>
+      <c r="N13">
+        <v>4.470329</v>
+      </c>
+      <c r="O13">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="P13">
+        <v>0.0689658805849709</v>
+      </c>
+      <c r="Q13">
+        <v>0.7794718963043332</v>
+      </c>
+      <c r="R13">
+        <v>7.015247066739</v>
+      </c>
+      <c r="S13">
+        <v>0.01818019170839228</v>
+      </c>
+      <c r="T13">
+        <v>0.01818019170839228</v>
       </c>
     </row>
   </sheetData>
